--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_23_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_23_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2390743.695344714</v>
+        <v>2388246.529167848</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673425</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8648131.424213501</v>
+        <v>8648131.424213499</v>
       </c>
     </row>
     <row r="11">
@@ -1370,19 +1370,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E11" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H11" t="n">
         <v>247.6326277687279</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
-        <v>77.1288187574994</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y11" t="n">
-        <v>339.262802037461</v>
+        <v>307.5272957798212</v>
       </c>
     </row>
     <row r="12">
@@ -1452,7 +1452,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,25 +1528,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D13" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S13" t="n">
         <v>142.7938887128493</v>
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>184.2427952397867</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>334.9552334536692</v>
+        <v>251.0267230750013</v>
       </c>
       <c r="F14" t="n">
         <v>359.9009091231189</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
         <v>204.0200353403094</v>
@@ -1673,7 +1673,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="15">
@@ -1698,10 +1698,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>134.9994691657079</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851095</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
         <v>18.81721868247742</v>
@@ -1765,25 +1765,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C16" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D16" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G16" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H16" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S16" t="n">
         <v>142.7938887128493</v>
@@ -1844,22 +1844,22 @@
         <v>288.7835684262955</v>
       </c>
       <c r="C17" t="n">
-        <v>271.3226185338225</v>
+        <v>271.3226185338224</v>
       </c>
       <c r="D17" t="n">
-        <v>260.7327683834979</v>
+        <v>260.7327683834978</v>
       </c>
       <c r="E17" t="n">
         <v>287.9800968350767</v>
       </c>
       <c r="F17" t="n">
-        <v>312.9257725045264</v>
+        <v>312.9257725045263</v>
       </c>
       <c r="G17" t="n">
-        <v>316.9714524162684</v>
+        <v>316.9714524162683</v>
       </c>
       <c r="H17" t="n">
-        <v>200.6574911501354</v>
+        <v>200.6574911501353</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>15.23748855099076</v>
+        <v>15.23748855099069</v>
       </c>
       <c r="T17" t="n">
-        <v>57.68543902955687</v>
+        <v>109.967696902435</v>
       </c>
       <c r="U17" t="n">
-        <v>157.0448987217169</v>
+        <v>157.0448987217168</v>
       </c>
       <c r="V17" t="n">
         <v>233.8019852329498</v>
       </c>
       <c r="W17" t="n">
-        <v>255.290695480228</v>
+        <v>255.2906954802279</v>
       </c>
       <c r="X17" t="n">
-        <v>275.780827441284</v>
+        <v>275.7808274412839</v>
       </c>
       <c r="Y17" t="n">
-        <v>292.2876654188685</v>
+        <v>240.0054075459913</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>85.88170694475224</v>
+        <v>85.88170694475215</v>
       </c>
       <c r="C19" t="n">
-        <v>73.29654786144278</v>
+        <v>73.29654786144269</v>
       </c>
       <c r="D19" t="n">
-        <v>54.6651997810273</v>
+        <v>54.66519978102721</v>
       </c>
       <c r="E19" t="n">
-        <v>52.48368940938411</v>
+        <v>52.48368940938403</v>
       </c>
       <c r="F19" t="n">
-        <v>51.47077478574619</v>
+        <v>51.4707747857461</v>
       </c>
       <c r="G19" t="n">
-        <v>72.07553502184317</v>
+        <v>72.07553502184308</v>
       </c>
       <c r="H19" t="n">
-        <v>50.80474167713572</v>
+        <v>50.80474167713564</v>
       </c>
       <c r="I19" t="n">
-        <v>2.402147172653038</v>
+        <v>2.402147172652953</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>95.81875209425684</v>
+        <v>95.81875209425675</v>
       </c>
       <c r="T19" t="n">
         <v>125.5986760389841</v>
       </c>
       <c r="U19" t="n">
-        <v>192.2615649684278</v>
+        <v>192.2615649684277</v>
       </c>
       <c r="V19" t="n">
         <v>158.1873700866429</v>
@@ -2065,10 +2065,10 @@
         <v>192.5727250994059</v>
       </c>
       <c r="X19" t="n">
-        <v>131.7593821518521</v>
+        <v>131.759382151852</v>
       </c>
       <c r="Y19" t="n">
-        <v>124.6343801149097</v>
+        <v>124.6343801149096</v>
       </c>
     </row>
     <row r="20">
@@ -2081,22 +2081,22 @@
         <v>288.7835684262955</v>
       </c>
       <c r="C20" t="n">
-        <v>271.3226185338225</v>
+        <v>271.3226185338224</v>
       </c>
       <c r="D20" t="n">
-        <v>208.4505105106193</v>
+        <v>260.7327683834978</v>
       </c>
       <c r="E20" t="n">
         <v>287.9800968350767</v>
       </c>
       <c r="F20" t="n">
-        <v>312.9257725045264</v>
+        <v>260.6435146316489</v>
       </c>
       <c r="G20" t="n">
-        <v>316.9714524162684</v>
+        <v>316.9714524162683</v>
       </c>
       <c r="H20" t="n">
-        <v>200.6574911501354</v>
+        <v>200.6574911501353</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>15.23748855099078</v>
+        <v>15.23748855099069</v>
       </c>
       <c r="T20" t="n">
-        <v>109.9676969024351</v>
+        <v>109.967696902435</v>
       </c>
       <c r="U20" t="n">
-        <v>157.0448987217169</v>
+        <v>157.0448987217168</v>
       </c>
       <c r="V20" t="n">
         <v>233.8019852329498</v>
       </c>
       <c r="W20" t="n">
-        <v>255.290695480228</v>
+        <v>255.2906954802279</v>
       </c>
       <c r="X20" t="n">
-        <v>275.780827441284</v>
+        <v>275.7808274412839</v>
       </c>
       <c r="Y20" t="n">
-        <v>292.2876654188685</v>
+        <v>292.2876654188684</v>
       </c>
     </row>
     <row r="21">
@@ -2172,10 +2172,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.9994691657079</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I21" t="n">
         <v>18.81721868247742</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85.88170694475224</v>
+        <v>85.88170694475215</v>
       </c>
       <c r="C22" t="n">
-        <v>73.29654786144278</v>
+        <v>73.29654786144269</v>
       </c>
       <c r="D22" t="n">
-        <v>54.6651997810273</v>
+        <v>54.66519978102721</v>
       </c>
       <c r="E22" t="n">
-        <v>52.48368940938411</v>
+        <v>52.48368940938403</v>
       </c>
       <c r="F22" t="n">
-        <v>51.47077478574619</v>
+        <v>51.4707747857461</v>
       </c>
       <c r="G22" t="n">
-        <v>72.07553502184317</v>
+        <v>72.07553502184308</v>
       </c>
       <c r="H22" t="n">
-        <v>50.80474167713572</v>
+        <v>50.80474167713564</v>
       </c>
       <c r="I22" t="n">
-        <v>2.402147172653038</v>
+        <v>2.402147172652953</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>95.81875209425684</v>
+        <v>95.81875209425675</v>
       </c>
       <c r="T22" t="n">
         <v>125.5986760389841</v>
       </c>
       <c r="U22" t="n">
-        <v>192.2615649684278</v>
+        <v>192.2615649684277</v>
       </c>
       <c r="V22" t="n">
         <v>158.1873700866429</v>
@@ -2302,10 +2302,10 @@
         <v>192.5727250994059</v>
       </c>
       <c r="X22" t="n">
-        <v>131.7593821518521</v>
+        <v>131.759382151852</v>
       </c>
       <c r="Y22" t="n">
-        <v>124.6343801149097</v>
+        <v>124.6343801149096</v>
       </c>
     </row>
     <row r="23">
@@ -2324,13 +2324,13 @@
         <v>260.7327683834978</v>
       </c>
       <c r="E23" t="n">
-        <v>287.9800968350767</v>
+        <v>246.2549806781851</v>
       </c>
       <c r="F23" t="n">
         <v>312.9257725045263</v>
       </c>
       <c r="G23" t="n">
-        <v>275.246336259378</v>
+        <v>316.9714524162683</v>
       </c>
       <c r="H23" t="n">
         <v>200.6574911501353</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>15.2374885509907</v>
+        <v>15.23748855099069</v>
       </c>
       <c r="T23" t="n">
         <v>109.967696902435</v>
@@ -2384,7 +2384,7 @@
         <v>275.7808274412839</v>
       </c>
       <c r="Y23" t="n">
-        <v>292.2876654188685</v>
+        <v>292.2876654188684</v>
       </c>
     </row>
     <row r="24">
@@ -2454,7 +2454,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494252</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85.88170694475217</v>
+        <v>85.88170694475215</v>
       </c>
       <c r="C25" t="n">
-        <v>73.2965478614427</v>
+        <v>73.29654786144269</v>
       </c>
       <c r="D25" t="n">
-        <v>54.66519978102723</v>
+        <v>54.66519978102721</v>
       </c>
       <c r="E25" t="n">
-        <v>52.48368940938404</v>
+        <v>52.48368940938403</v>
       </c>
       <c r="F25" t="n">
-        <v>51.47077478574612</v>
+        <v>51.4707747857461</v>
       </c>
       <c r="G25" t="n">
-        <v>72.07553502184309</v>
+        <v>72.07553502184308</v>
       </c>
       <c r="H25" t="n">
-        <v>50.80474167713565</v>
+        <v>50.80474167713564</v>
       </c>
       <c r="I25" t="n">
-        <v>2.402147172652967</v>
+        <v>2.402147172652953</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>95.81875209425678</v>
+        <v>95.81875209425675</v>
       </c>
       <c r="T25" t="n">
         <v>125.5986760389841</v>
@@ -2542,7 +2542,7 @@
         <v>131.759382151852</v>
       </c>
       <c r="Y25" t="n">
-        <v>124.6343801149097</v>
+        <v>124.6343801149096</v>
       </c>
     </row>
     <row r="26">
@@ -2555,22 +2555,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>318.297755152415</v>
+        <v>201.5085875576226</v>
       </c>
       <c r="D26" t="n">
         <v>307.7079050020904</v>
       </c>
       <c r="E26" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>359.9009091231189</v>
       </c>
       <c r="G26" t="n">
-        <v>185.9908510071057</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U26" t="n">
         <v>204.0200353403094</v>
@@ -2615,7 +2615,7 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X26" t="n">
         <v>322.7559640598765</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247748</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2795,19 +2795,19 @@
         <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020904</v>
+        <v>219.9100929884902</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>189.995589664421</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958327</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2886,7 +2886,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.5968754185112</v>
       </c>
       <c r="I30" t="n">
         <v>18.81721868247742</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>285.8032029865175</v>
+        <v>285.8032029865174</v>
       </c>
       <c r="C32" t="n">
-        <v>268.3422530940445</v>
+        <v>268.3422530940444</v>
       </c>
       <c r="D32" t="n">
-        <v>257.7524029437199</v>
+        <v>257.7524029437198</v>
       </c>
       <c r="E32" t="n">
-        <v>284.9997313952987</v>
+        <v>284.9997313952986</v>
       </c>
       <c r="F32" t="n">
-        <v>309.9454070647484</v>
+        <v>309.9454070647483</v>
       </c>
       <c r="G32" t="n">
-        <v>313.9910869764904</v>
+        <v>313.9910869764903</v>
       </c>
       <c r="H32" t="n">
-        <v>197.6771257103574</v>
+        <v>197.6771257103573</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>12.25712311121279</v>
+        <v>12.25712311121266</v>
       </c>
       <c r="T32" t="n">
-        <v>106.9873314626571</v>
+        <v>106.987331462657</v>
       </c>
       <c r="U32" t="n">
-        <v>154.0645332819389</v>
+        <v>154.0645332819388</v>
       </c>
       <c r="V32" t="n">
-        <v>230.8216197931719</v>
+        <v>230.8216197931717</v>
       </c>
       <c r="W32" t="n">
-        <v>252.31033004045</v>
+        <v>252.3103300404499</v>
       </c>
       <c r="X32" t="n">
-        <v>272.800462001506</v>
+        <v>272.8004620015059</v>
       </c>
       <c r="Y32" t="n">
-        <v>289.3072999790905</v>
+        <v>289.3072999790904</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247748</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3159,7 +3159,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T33" t="n">
-        <v>190.7165703189229</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U33" t="n">
         <v>225.7871683969286</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>82.90134150497425</v>
+        <v>82.90134150497413</v>
       </c>
       <c r="C34" t="n">
-        <v>70.31618242166479</v>
+        <v>70.31618242166466</v>
       </c>
       <c r="D34" t="n">
-        <v>51.68483434124931</v>
+        <v>51.68483434124919</v>
       </c>
       <c r="E34" t="n">
-        <v>49.50332396960613</v>
+        <v>49.503323969606</v>
       </c>
       <c r="F34" t="n">
-        <v>48.4904093459682</v>
+        <v>48.49040934596808</v>
       </c>
       <c r="G34" t="n">
-        <v>69.09516958206518</v>
+        <v>69.09516958206505</v>
       </c>
       <c r="H34" t="n">
-        <v>47.82437623735774</v>
+        <v>47.82437623735761</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>92.83838665447885</v>
+        <v>92.83838665447873</v>
       </c>
       <c r="T34" t="n">
-        <v>122.6183105992062</v>
+        <v>122.618310599206</v>
       </c>
       <c r="U34" t="n">
-        <v>189.2811995286498</v>
+        <v>189.2811995286497</v>
       </c>
       <c r="V34" t="n">
-        <v>155.207004646865</v>
+        <v>155.2070046468648</v>
       </c>
       <c r="W34" t="n">
-        <v>189.592359659628</v>
+        <v>189.5923596596278</v>
       </c>
       <c r="X34" t="n">
-        <v>128.7790167120741</v>
+        <v>128.779016712074</v>
       </c>
       <c r="Y34" t="n">
-        <v>121.6540146751317</v>
+        <v>121.6540146751316</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3275,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G35" t="n">
         <v>313.2370054253485</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007084</v>
+        <v>11.50304156007091</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W35" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="36">
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.1472599538323</v>
+        <v>82.14725995383237</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052284</v>
+        <v>69.56210087052291</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010736</v>
+        <v>50.93075279010743</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846418</v>
+        <v>48.74924241846425</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482625</v>
+        <v>47.73632779482632</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092323</v>
+        <v>68.3410880309233</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621579</v>
+        <v>47.07029468621586</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.0843051033369</v>
+        <v>92.08430510333697</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U37" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V37" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W37" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X37" t="n">
         <v>128.0249351609322</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3509,7 @@
         <v>256.998321392578</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441577</v>
       </c>
       <c r="F38" t="n">
         <v>309.1913255136065</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007091</v>
       </c>
       <c r="T38" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V38" t="n">
         <v>230.06753824203</v>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498671</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -3597,7 +3597,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851092</v>
       </c>
       <c r="I39" t="n">
         <v>18.81721868247742</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383236</v>
+        <v>82.14725995383237</v>
       </c>
       <c r="C40" t="n">
-        <v>69.5621008705229</v>
+        <v>69.56210087052291</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010742</v>
+        <v>50.93075279010743</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846423</v>
+        <v>48.74924241846425</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482631</v>
+        <v>47.73632779482632</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092329</v>
+        <v>68.3410880309233</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621585</v>
+        <v>47.07029468621586</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333696</v>
+        <v>92.08430510333697</v>
       </c>
       <c r="T40" t="n">
         <v>121.8642290480643</v>
@@ -3837,7 +3837,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3885,7 +3885,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773041</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -4031,7 +4031,7 @@
         <v>106.2332499115152</v>
       </c>
       <c r="U44" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V44" t="n">
         <v>230.06753824203</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2018.472742224994</v>
+        <v>1333.423586391121</v>
       </c>
       <c r="C11" t="n">
-        <v>1696.959858232655</v>
+        <v>1333.423586391121</v>
       </c>
       <c r="D11" t="n">
-        <v>1386.143792573978</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="E11" t="n">
-        <v>1047.805172923807</v>
+        <v>684.268901082273</v>
       </c>
       <c r="F11" t="n">
-        <v>684.2689010822729</v>
+        <v>684.268901082273</v>
       </c>
       <c r="G11" t="n">
         <v>316.6460838753429</v>
@@ -5042,7 +5042,7 @@
         <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5054,10 +5054,10 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
@@ -5069,22 +5069,22 @@
         <v>3262.764786084339</v>
       </c>
       <c r="T11" t="n">
-        <v>3104.236671416635</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U11" t="n">
-        <v>3026.328773681787</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V11" t="n">
-        <v>3026.328773681787</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W11" t="n">
-        <v>3026.328773681787</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X11" t="n">
-        <v>2700.312648368781</v>
+        <v>1983.207425607999</v>
       </c>
       <c r="Y11" t="n">
-        <v>2357.622949341042</v>
+        <v>1672.57379350717</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
@@ -5121,10 +5121,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5136,31 +5136,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
         <v>1109.759191501176</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052941</v>
+        <v>759.4662498052949</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254604</v>
+        <v>637.9796998254612</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611981</v>
+        <v>535.3126933611989</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268782</v>
+        <v>434.849232726879</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770413</v>
+        <v>335.408918177042</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H13" t="n">
         <v>116.3881606657648</v>
@@ -5200,7 +5200,7 @@
         <v>158.1401341315256</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328084</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L13" t="n">
         <v>771.6978860337113</v>
@@ -5230,19 +5230,19 @@
         <v>1938.403572105846</v>
       </c>
       <c r="U13" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V13" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W13" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X13" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874605</v>
+        <v>893.6650816874612</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2018.472742224994</v>
+        <v>1301.367519464212</v>
       </c>
       <c r="C14" t="n">
-        <v>1696.959858232656</v>
+        <v>1301.367519464212</v>
       </c>
       <c r="D14" t="n">
-        <v>1386.143792573978</v>
+        <v>1301.367519464212</v>
       </c>
       <c r="E14" t="n">
         <v>1047.805172923807</v>
       </c>
       <c r="F14" t="n">
-        <v>684.268901082273</v>
+        <v>684.2689010822728</v>
       </c>
       <c r="G14" t="n">
         <v>316.6460838753429</v>
@@ -5276,25 +5276,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052368</v>
@@ -5303,25 +5303,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U14" t="n">
-        <v>3119.524977831081</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V14" t="n">
-        <v>2835.911723435584</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W14" t="n">
-        <v>2530.592701113543</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X14" t="n">
-        <v>2204.576575800536</v>
+        <v>1983.207425607999</v>
       </c>
       <c r="Y14" t="n">
-        <v>2204.576575800536</v>
+        <v>1640.517726580261</v>
       </c>
     </row>
     <row r="15">
@@ -5346,7 +5346,7 @@
         <v>312.3844025601596</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
         <v>85.51940803064545</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052943</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254607</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611983</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268785</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F16" t="n">
         <v>335.4089181770414</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L16" t="n">
         <v>771.6978860337115</v>
@@ -5452,34 +5452,34 @@
         <v>1896.109063016758</v>
       </c>
       <c r="P16" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702823</v>
       </c>
       <c r="Q16" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R16" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S16" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T16" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U16" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V16" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W16" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X16" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874608</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="17">
@@ -5492,19 +5492,19 @@
         <v>1733.774944536555</v>
       </c>
       <c r="C17" t="n">
-        <v>1459.711693492289</v>
+        <v>1459.71169349229</v>
       </c>
       <c r="D17" t="n">
         <v>1196.345260781686</v>
       </c>
       <c r="E17" t="n">
-        <v>905.4562740795877</v>
+        <v>905.4562740795882</v>
       </c>
       <c r="F17" t="n">
-        <v>589.3696351861266</v>
+        <v>589.3696351861272</v>
       </c>
       <c r="G17" t="n">
-        <v>269.1964509272697</v>
+        <v>269.1964509272696</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218342</v>
@@ -5513,16 +5513,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
@@ -5540,25 +5540,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3310.214419032412</v>
+        <v>3310.214419032413</v>
       </c>
       <c r="T17" t="n">
-        <v>3251.946298800537</v>
+        <v>3199.135937312782</v>
       </c>
       <c r="U17" t="n">
-        <v>3093.31508797052</v>
+        <v>3040.504726482764</v>
       </c>
       <c r="V17" t="n">
-        <v>2857.151466523096</v>
+        <v>2804.341105035341</v>
       </c>
       <c r="W17" t="n">
-        <v>2599.282077149128</v>
+        <v>2546.471715661373</v>
       </c>
       <c r="X17" t="n">
-        <v>2320.715584784195</v>
+        <v>2267.90522329644</v>
       </c>
       <c r="Y17" t="n">
-        <v>2025.475518704529</v>
+        <v>2025.47551870453</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064582</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>427.3188191687817</v>
+        <v>427.3188191687811</v>
       </c>
       <c r="C19" t="n">
-        <v>353.2819021370213</v>
+        <v>353.2819021370208</v>
       </c>
       <c r="D19" t="n">
-        <v>298.0645286208322</v>
+        <v>298.0645286208317</v>
       </c>
       <c r="E19" t="n">
-        <v>245.0507009345856</v>
+        <v>245.0507009345852</v>
       </c>
       <c r="F19" t="n">
-        <v>193.0600193328218</v>
+        <v>193.0600193328215</v>
       </c>
       <c r="G19" t="n">
-        <v>120.2564486036872</v>
+        <v>120.2564486036871</v>
       </c>
       <c r="H19" t="n">
-        <v>68.93852771769154</v>
+        <v>68.93852771769146</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>171.3456404744361</v>
+        <v>171.3456404744362</v>
       </c>
       <c r="K19" t="n">
-        <v>335.9171774872905</v>
+        <v>330.949238125822</v>
       </c>
       <c r="L19" t="n">
-        <v>491.6270214096477</v>
+        <v>486.6590820481793</v>
       </c>
       <c r="M19" t="n">
-        <v>752.0702732136588</v>
+        <v>747.1023338521904</v>
       </c>
       <c r="N19" t="n">
-        <v>1016.389880748319</v>
+        <v>1011.421941386851</v>
       </c>
       <c r="O19" t="n">
-        <v>1247.319000471322</v>
+        <v>1242.351061109854</v>
       </c>
       <c r="P19" t="n">
-        <v>1439.280773728894</v>
+        <v>1434.312834367426</v>
       </c>
       <c r="Q19" t="n">
-        <v>1545.212311592248</v>
+        <v>1540.24437223078</v>
       </c>
       <c r="R19" t="n">
-        <v>1545.212311592248</v>
+        <v>1545.212311592247</v>
       </c>
       <c r="S19" t="n">
-        <v>1448.425693315221</v>
+        <v>1448.42569331522</v>
       </c>
       <c r="T19" t="n">
-        <v>1321.558343780894</v>
+        <v>1321.558343780893</v>
       </c>
       <c r="U19" t="n">
-        <v>1127.354742802684</v>
+        <v>1127.354742802683</v>
       </c>
       <c r="V19" t="n">
-        <v>967.5695204929434</v>
+        <v>967.5695204929425</v>
       </c>
       <c r="W19" t="n">
-        <v>773.0516163521294</v>
+        <v>773.0516163521285</v>
       </c>
       <c r="X19" t="n">
-        <v>639.9613313502585</v>
+        <v>639.9613313502578</v>
       </c>
       <c r="Y19" t="n">
-        <v>514.0680181028749</v>
+        <v>514.0680181028742</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1680.964583048798</v>
+        <v>1680.964583048799</v>
       </c>
       <c r="C20" t="n">
-        <v>1406.901332004533</v>
+        <v>1406.901332004534</v>
       </c>
       <c r="D20" t="n">
-        <v>1196.345260781686</v>
+        <v>1143.53489929393</v>
       </c>
       <c r="E20" t="n">
-        <v>905.4562740795877</v>
+        <v>852.6459125918326</v>
       </c>
       <c r="F20" t="n">
-        <v>589.3696351861267</v>
+        <v>589.3696351861266</v>
       </c>
       <c r="G20" t="n">
-        <v>269.1964509272697</v>
+        <v>269.1964509272696</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218342</v>
@@ -5762,16 +5762,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
@@ -5792,10 +5792,10 @@
         <v>2546.471715661372</v>
       </c>
       <c r="X20" t="n">
-        <v>2267.905223296439</v>
+        <v>2267.90522329644</v>
       </c>
       <c r="Y20" t="n">
-        <v>1972.665157216774</v>
+        <v>1972.665157216775</v>
       </c>
     </row>
     <row r="21">
@@ -5820,7 +5820,7 @@
         <v>312.3844025601596</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H21" t="n">
         <v>85.51940803064545</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>427.3188191687817</v>
+        <v>427.3188191687811</v>
       </c>
       <c r="C22" t="n">
-        <v>353.2819021370213</v>
+        <v>353.2819021370208</v>
       </c>
       <c r="D22" t="n">
-        <v>298.0645286208322</v>
+        <v>298.0645286208317</v>
       </c>
       <c r="E22" t="n">
-        <v>245.0507009345856</v>
+        <v>245.0507009345852</v>
       </c>
       <c r="F22" t="n">
-        <v>193.0600193328218</v>
+        <v>193.0600193328215</v>
       </c>
       <c r="G22" t="n">
-        <v>120.2564486036872</v>
+        <v>120.2564486036871</v>
       </c>
       <c r="H22" t="n">
-        <v>68.93852771769154</v>
+        <v>68.93852771769146</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>171.3456404744361</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K22" t="n">
-        <v>362.6672652469197</v>
+        <v>237.9384676210088</v>
       </c>
       <c r="L22" t="n">
-        <v>611.3878796740901</v>
+        <v>486.6590820481793</v>
       </c>
       <c r="M22" t="n">
-        <v>871.831131478101</v>
+        <v>747.1023338521904</v>
       </c>
       <c r="N22" t="n">
-        <v>1136.150739012762</v>
+        <v>1011.421941386851</v>
       </c>
       <c r="O22" t="n">
-        <v>1274.069088230951</v>
+        <v>1242.351061109854</v>
       </c>
       <c r="P22" t="n">
-        <v>1439.280773728894</v>
+        <v>1434.312834367426</v>
       </c>
       <c r="Q22" t="n">
-        <v>1545.212311592248</v>
+        <v>1540.24437223078</v>
       </c>
       <c r="R22" t="n">
-        <v>1545.212311592248</v>
+        <v>1545.212311592247</v>
       </c>
       <c r="S22" t="n">
-        <v>1448.425693315221</v>
+        <v>1448.42569331522</v>
       </c>
       <c r="T22" t="n">
-        <v>1321.558343780894</v>
+        <v>1321.558343780893</v>
       </c>
       <c r="U22" t="n">
-        <v>1127.354742802684</v>
+        <v>1127.354742802683</v>
       </c>
       <c r="V22" t="n">
-        <v>967.5695204929434</v>
+        <v>967.5695204929425</v>
       </c>
       <c r="W22" t="n">
-        <v>773.0516163521294</v>
+        <v>773.0516163521285</v>
       </c>
       <c r="X22" t="n">
-        <v>639.9613313502585</v>
+        <v>639.9613313502578</v>
       </c>
       <c r="Y22" t="n">
-        <v>514.0680181028749</v>
+        <v>514.0680181028742</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1691.845990713185</v>
+        <v>1691.845990713183</v>
       </c>
       <c r="C23" t="n">
-        <v>1417.782739668919</v>
+        <v>1417.782739668918</v>
       </c>
       <c r="D23" t="n">
-        <v>1154.416306958316</v>
+        <v>1154.416306958314</v>
       </c>
       <c r="E23" t="n">
-        <v>863.527320256218</v>
+        <v>905.6739022328752</v>
       </c>
       <c r="F23" t="n">
-        <v>547.440681362757</v>
+        <v>589.5872633394142</v>
       </c>
       <c r="G23" t="n">
-        <v>269.4140790805574</v>
+        <v>269.4140790805573</v>
       </c>
       <c r="H23" t="n">
-        <v>66.72974458547114</v>
+        <v>66.7297445854711</v>
       </c>
       <c r="I23" t="n">
-        <v>77.39352409656905</v>
+        <v>66.7297445854711</v>
       </c>
       <c r="J23" t="n">
-        <v>266.2726550555945</v>
+        <v>266.2726550555927</v>
       </c>
       <c r="K23" t="n">
-        <v>600.092028745441</v>
+        <v>600.0920287454392</v>
       </c>
       <c r="L23" t="n">
-        <v>1051.12624199385</v>
+        <v>1051.126241993848</v>
       </c>
       <c r="M23" t="n">
-        <v>1584.658146665774</v>
+        <v>1584.658146665773</v>
       </c>
       <c r="N23" t="n">
-        <v>2131.436963724557</v>
+        <v>2131.436963724555</v>
       </c>
       <c r="O23" t="n">
-        <v>2634.409434603894</v>
+        <v>2634.409434603892</v>
       </c>
       <c r="P23" t="n">
-        <v>3029.183800961072</v>
+        <v>3029.18380096107</v>
       </c>
       <c r="Q23" t="n">
-        <v>3277.470162716754</v>
+        <v>3277.470162716752</v>
       </c>
       <c r="R23" t="n">
-        <v>3336.487229273557</v>
+        <v>3336.487229273555</v>
       </c>
       <c r="S23" t="n">
-        <v>3321.095826696799</v>
+        <v>3321.095826696796</v>
       </c>
       <c r="T23" t="n">
-        <v>3210.017344977167</v>
+        <v>3210.017344977165</v>
       </c>
       <c r="U23" t="n">
-        <v>3051.38613414715</v>
+        <v>3051.386134147148</v>
       </c>
       <c r="V23" t="n">
-        <v>2815.222512699726</v>
+        <v>2815.222512699724</v>
       </c>
       <c r="W23" t="n">
-        <v>2557.353123325758</v>
+        <v>2557.353123325757</v>
       </c>
       <c r="X23" t="n">
-        <v>2278.786630960825</v>
+        <v>2278.786630960823</v>
       </c>
       <c r="Y23" t="n">
-        <v>1983.54656488116</v>
+        <v>1983.546564881158</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.7614826343964</v>
+        <v>941.7614826343961</v>
       </c>
       <c r="C24" t="n">
-        <v>767.3084533532694</v>
+        <v>767.3084533532691</v>
       </c>
       <c r="D24" t="n">
-        <v>618.3740436920182</v>
+        <v>618.3740436920179</v>
       </c>
       <c r="E24" t="n">
-        <v>459.1365886865626</v>
+        <v>459.1365886865624</v>
       </c>
       <c r="F24" t="n">
-        <v>312.6020307134476</v>
+        <v>312.6020307134474</v>
       </c>
       <c r="G24" t="n">
-        <v>176.2389305460657</v>
+        <v>176.2389305460661</v>
       </c>
       <c r="H24" t="n">
-        <v>85.73703618393318</v>
+        <v>85.73703618393314</v>
       </c>
       <c r="I24" t="n">
-        <v>66.72974458547114</v>
+        <v>66.7297445854711</v>
       </c>
       <c r="J24" t="n">
-        <v>160.4070140760885</v>
+        <v>160.4070140760884</v>
       </c>
       <c r="K24" t="n">
         <v>398.6712130564356</v>
       </c>
       <c r="L24" t="n">
-        <v>765.3693733691009</v>
+        <v>765.3693733691011</v>
       </c>
       <c r="M24" t="n">
         <v>1212.645698591417</v>
@@ -6124,49 +6124,49 @@
         <v>427.5364473220689</v>
       </c>
       <c r="C25" t="n">
-        <v>353.4995302903086</v>
+        <v>353.4995302903085</v>
       </c>
       <c r="D25" t="n">
-        <v>298.2821567741195</v>
+        <v>298.2821567741194</v>
       </c>
       <c r="E25" t="n">
-        <v>245.268329087873</v>
+        <v>245.2683290878729</v>
       </c>
       <c r="F25" t="n">
         <v>193.2776474861092</v>
       </c>
       <c r="G25" t="n">
-        <v>120.4740767569748</v>
+        <v>120.4740767569747</v>
       </c>
       <c r="H25" t="n">
-        <v>69.15615587097919</v>
+        <v>69.15615587097913</v>
       </c>
       <c r="I25" t="n">
-        <v>66.72974458547114</v>
+        <v>66.7297445854711</v>
       </c>
       <c r="J25" t="n">
         <v>171.5632686277239</v>
       </c>
       <c r="K25" t="n">
-        <v>362.8848934002075</v>
+        <v>269.8741228953942</v>
       </c>
       <c r="L25" t="n">
-        <v>611.605507827378</v>
+        <v>518.5947373225648</v>
       </c>
       <c r="M25" t="n">
-        <v>872.0487596313891</v>
+        <v>779.0379891265759</v>
       </c>
       <c r="N25" t="n">
-        <v>1136.36836716605</v>
+        <v>1043.357596661237</v>
       </c>
       <c r="O25" t="n">
-        <v>1367.297486889053</v>
+        <v>1274.28671638424</v>
       </c>
       <c r="P25" t="n">
-        <v>1532.509172386994</v>
+        <v>1466.248489641811</v>
       </c>
       <c r="Q25" t="n">
-        <v>1545.429939745535</v>
+        <v>1540.462000384068</v>
       </c>
       <c r="R25" t="n">
         <v>1545.429939745535</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1838.937099643176</v>
+        <v>1312.248927128595</v>
       </c>
       <c r="C26" t="n">
-        <v>1517.424215650838</v>
+        <v>1108.704899292613</v>
       </c>
       <c r="D26" t="n">
-        <v>1206.608149992161</v>
+        <v>797.8888336339355</v>
       </c>
       <c r="E26" t="n">
-        <v>868.2695303419899</v>
+        <v>797.8888336339355</v>
       </c>
       <c r="F26" t="n">
-        <v>504.7332585004556</v>
+        <v>434.3525617924013</v>
       </c>
       <c r="G26" t="n">
-        <v>316.8637120286306</v>
+        <v>66.72974458547108</v>
       </c>
       <c r="H26" t="n">
-        <v>66.72974458547114</v>
+        <v>66.72974458547108</v>
       </c>
       <c r="I26" t="n">
-        <v>72.07396936268108</v>
+        <v>66.72974458547108</v>
       </c>
       <c r="J26" t="n">
-        <v>260.9531003217065</v>
+        <v>255.6088755444965</v>
       </c>
       <c r="K26" t="n">
-        <v>594.772474011553</v>
+        <v>589.428249234343</v>
       </c>
       <c r="L26" t="n">
-        <v>1045.806687259962</v>
+        <v>1040.462462482752</v>
       </c>
       <c r="M26" t="n">
-        <v>1579.338591931886</v>
+        <v>1573.994367154676</v>
       </c>
       <c r="N26" t="n">
-        <v>2126.117408990669</v>
+        <v>2120.773184213459</v>
       </c>
       <c r="O26" t="n">
-        <v>2629.089879870005</v>
+        <v>2623.745655092795</v>
       </c>
       <c r="P26" t="n">
-        <v>3023.864246227184</v>
+        <v>3018.520021449974</v>
       </c>
       <c r="Q26" t="n">
-        <v>3272.150607982866</v>
+        <v>3266.806383205656</v>
       </c>
       <c r="R26" t="n">
-        <v>3336.487229273557</v>
+        <v>3336.487229273554</v>
       </c>
       <c r="S26" t="n">
-        <v>3336.487229273557</v>
+        <v>3273.646193748722</v>
       </c>
       <c r="T26" t="n">
-        <v>3336.487229273557</v>
+        <v>3115.118079081018</v>
       </c>
       <c r="U26" t="n">
-        <v>3130.406385495467</v>
+        <v>2909.037235302927</v>
       </c>
       <c r="V26" t="n">
-        <v>2846.793131099969</v>
+        <v>2625.42398090743</v>
       </c>
       <c r="W26" t="n">
-        <v>2846.793131099969</v>
+        <v>2320.104958585389</v>
       </c>
       <c r="X26" t="n">
-        <v>2520.777005786963</v>
+        <v>1994.088833272382</v>
       </c>
       <c r="Y26" t="n">
-        <v>2178.087306759225</v>
+        <v>1651.399134244644</v>
       </c>
     </row>
     <row r="27">
@@ -6279,13 +6279,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.7614826343964</v>
+        <v>941.7614826343963</v>
       </c>
       <c r="C27" t="n">
-        <v>767.3084533532694</v>
+        <v>767.3084533532693</v>
       </c>
       <c r="D27" t="n">
-        <v>618.3740436920182</v>
+        <v>618.3740436920181</v>
       </c>
       <c r="E27" t="n">
         <v>459.1365886865626</v>
@@ -6300,16 +6300,16 @@
         <v>85.73703618393318</v>
       </c>
       <c r="I27" t="n">
-        <v>66.72974458547114</v>
+        <v>66.72974458547108</v>
       </c>
       <c r="J27" t="n">
-        <v>160.4070140760885</v>
+        <v>160.4070140760884</v>
       </c>
       <c r="K27" t="n">
         <v>398.6712130564356</v>
       </c>
       <c r="L27" t="n">
-        <v>765.369373369101</v>
+        <v>765.3693733691009</v>
       </c>
       <c r="M27" t="n">
         <v>1212.645698591417</v>
@@ -6367,28 +6367,28 @@
         <v>535.5303215144861</v>
       </c>
       <c r="E28" t="n">
-        <v>435.0668608801662</v>
+        <v>435.0668608801663</v>
       </c>
       <c r="F28" t="n">
         <v>335.6265463303292</v>
       </c>
       <c r="G28" t="n">
-        <v>215.3733426531214</v>
+        <v>215.3733426531215</v>
       </c>
       <c r="H28" t="n">
-        <v>116.6057888190525</v>
+        <v>116.6057888190524</v>
       </c>
       <c r="I28" t="n">
-        <v>66.72974458547114</v>
+        <v>66.72974458547108</v>
       </c>
       <c r="J28" t="n">
-        <v>158.3577622848129</v>
+        <v>158.3577622848133</v>
       </c>
       <c r="K28" t="n">
-        <v>408.8503304860959</v>
+        <v>408.850330486096</v>
       </c>
       <c r="L28" t="n">
-        <v>771.9155141869987</v>
+        <v>771.9155141869988</v>
       </c>
       <c r="M28" t="n">
         <v>1162.577945038954</v>
@@ -6406,13 +6406,13 @@
         <v>2299.555258261033</v>
       </c>
       <c r="R28" t="n">
-        <v>2257.174433966634</v>
+        <v>2257.174433966635</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.938182741534</v>
+        <v>2112.938182741535</v>
       </c>
       <c r="T28" t="n">
-        <v>1938.621200259133</v>
+        <v>1938.621200259134</v>
       </c>
       <c r="U28" t="n">
         <v>1696.96796633285</v>
@@ -6421,10 +6421,10 @@
         <v>1489.733111075037</v>
       </c>
       <c r="W28" t="n">
-        <v>1247.765573986149</v>
+        <v>1247.76557398615</v>
       </c>
       <c r="X28" t="n">
-        <v>1067.225656036205</v>
+        <v>1067.225656036206</v>
       </c>
       <c r="Y28" t="n">
         <v>893.8827098407485</v>
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1960.471139969891</v>
+        <v>1312.248927128596</v>
       </c>
       <c r="C29" t="n">
-        <v>1638.958255977552</v>
+        <v>990.7360431362574</v>
       </c>
       <c r="D29" t="n">
-        <v>1328.142190318875</v>
+        <v>768.6046360771762</v>
       </c>
       <c r="E29" t="n">
-        <v>989.8035706687037</v>
+        <v>430.2660164270053</v>
       </c>
       <c r="F29" t="n">
-        <v>626.2672988271697</v>
+        <v>66.72974458547108</v>
       </c>
       <c r="G29" t="n">
-        <v>258.6444816202398</v>
+        <v>66.72974458547108</v>
       </c>
       <c r="H29" t="n">
-        <v>66.72974458547114</v>
+        <v>66.72974458547108</v>
       </c>
       <c r="I29" t="n">
-        <v>72.07396936268108</v>
+        <v>66.72974458547108</v>
       </c>
       <c r="J29" t="n">
-        <v>260.9531003217065</v>
+        <v>255.6088755444965</v>
       </c>
       <c r="K29" t="n">
-        <v>594.772474011553</v>
+        <v>589.428249234343</v>
       </c>
       <c r="L29" t="n">
-        <v>1045.806687259962</v>
+        <v>1040.462462482752</v>
       </c>
       <c r="M29" t="n">
-        <v>1579.338591931886</v>
+        <v>1584.658146665772</v>
       </c>
       <c r="N29" t="n">
-        <v>2126.117408990669</v>
+        <v>2131.436963724554</v>
       </c>
       <c r="O29" t="n">
-        <v>2629.089879870005</v>
+        <v>2634.409434603891</v>
       </c>
       <c r="P29" t="n">
-        <v>3023.864246227184</v>
+        <v>3029.183800961069</v>
       </c>
       <c r="Q29" t="n">
-        <v>3272.150607982866</v>
+        <v>3277.470162716751</v>
       </c>
       <c r="R29" t="n">
-        <v>3336.487229273557</v>
+        <v>3336.487229273554</v>
       </c>
       <c r="S29" t="n">
-        <v>3273.646193748725</v>
+        <v>3273.646193748722</v>
       </c>
       <c r="T29" t="n">
-        <v>3273.646193748725</v>
+        <v>3115.118079081018</v>
       </c>
       <c r="U29" t="n">
-        <v>3273.646193748725</v>
+        <v>2909.037235302928</v>
       </c>
       <c r="V29" t="n">
-        <v>3273.646193748725</v>
+        <v>2625.423980907431</v>
       </c>
       <c r="W29" t="n">
-        <v>2968.327171426684</v>
+        <v>2320.10495858539</v>
       </c>
       <c r="X29" t="n">
-        <v>2642.311046113678</v>
+        <v>1994.088833272383</v>
       </c>
       <c r="Y29" t="n">
-        <v>2299.621347085939</v>
+        <v>1651.399134244645</v>
       </c>
     </row>
     <row r="30">
@@ -6534,13 +6534,13 @@
         <v>176.2389305460657</v>
       </c>
       <c r="H30" t="n">
-        <v>85.73703618393318</v>
+        <v>85.73703618393313</v>
       </c>
       <c r="I30" t="n">
-        <v>66.72974458547114</v>
+        <v>66.72974458547108</v>
       </c>
       <c r="J30" t="n">
-        <v>160.4070140760885</v>
+        <v>160.4070140760884</v>
       </c>
       <c r="K30" t="n">
         <v>398.6712130564356</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>759.6838779585822</v>
+        <v>759.6838779585818</v>
       </c>
       <c r="C31" t="n">
-        <v>638.1973279787486</v>
+        <v>638.1973279787481</v>
       </c>
       <c r="D31" t="n">
-        <v>535.5303215144862</v>
+        <v>535.5303215144858</v>
       </c>
       <c r="E31" t="n">
-        <v>435.0668608801664</v>
+        <v>435.066860880166</v>
       </c>
       <c r="F31" t="n">
-        <v>335.6265463303293</v>
+        <v>335.626546330329</v>
       </c>
       <c r="G31" t="n">
-        <v>215.3733426531214</v>
+        <v>215.3733426531213</v>
       </c>
       <c r="H31" t="n">
-        <v>116.6057888190525</v>
+        <v>116.6057888190524</v>
       </c>
       <c r="I31" t="n">
-        <v>66.72974458547114</v>
+        <v>66.72974458547108</v>
       </c>
       <c r="J31" t="n">
         <v>158.3577622848133</v>
@@ -6637,7 +6637,7 @@
         <v>1896.326691170046</v>
       </c>
       <c r="P31" t="n">
-        <v>2175.439576856112</v>
+        <v>2175.439576856111</v>
       </c>
       <c r="Q31" t="n">
         <v>2299.555258261033</v>
@@ -6649,7 +6649,7 @@
         <v>2112.938182741534</v>
       </c>
       <c r="T31" t="n">
-        <v>1938.621200259134</v>
+        <v>1938.621200259133</v>
       </c>
       <c r="U31" t="n">
         <v>1696.96796633285</v>
@@ -6658,13 +6658,13 @@
         <v>1489.733111075037</v>
       </c>
       <c r="W31" t="n">
-        <v>1247.76557398615</v>
+        <v>1247.765573986149</v>
       </c>
       <c r="X31" t="n">
         <v>1067.225656036205</v>
       </c>
       <c r="Y31" t="n">
-        <v>893.8827098407487</v>
+        <v>893.8827098407481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1715.929751842703</v>
+        <v>1715.929751842702</v>
       </c>
       <c r="C32" t="n">
         <v>1444.876970939627</v>
       </c>
       <c r="D32" t="n">
-        <v>1184.521008370214</v>
+        <v>1184.521008370213</v>
       </c>
       <c r="E32" t="n">
-        <v>896.6424918093057</v>
+        <v>896.6424918093051</v>
       </c>
       <c r="F32" t="n">
-        <v>583.5663230570349</v>
+        <v>583.566323057034</v>
       </c>
       <c r="G32" t="n">
-        <v>266.4036089393675</v>
+        <v>266.4036089393674</v>
       </c>
       <c r="H32" t="n">
-        <v>66.72974458547114</v>
+        <v>66.72974458547108</v>
       </c>
       <c r="I32" t="n">
-        <v>77.39352409656905</v>
+        <v>66.72974458547108</v>
       </c>
       <c r="J32" t="n">
-        <v>266.2726550555945</v>
+        <v>255.6088755444965</v>
       </c>
       <c r="K32" t="n">
-        <v>600.092028745441</v>
+        <v>589.428249234343</v>
       </c>
       <c r="L32" t="n">
-        <v>1051.12624199385</v>
+        <v>1051.126241993847</v>
       </c>
       <c r="M32" t="n">
-        <v>1584.658146665774</v>
+        <v>1584.658146665772</v>
       </c>
       <c r="N32" t="n">
-        <v>2131.436963724557</v>
+        <v>2131.436963724554</v>
       </c>
       <c r="O32" t="n">
-        <v>2634.409434603894</v>
+        <v>2634.409434603891</v>
       </c>
       <c r="P32" t="n">
-        <v>3029.183800961072</v>
+        <v>3029.183800961069</v>
       </c>
       <c r="Q32" t="n">
-        <v>3277.470162716754</v>
+        <v>3277.470162716751</v>
       </c>
       <c r="R32" t="n">
-        <v>3336.487229273557</v>
+        <v>3336.487229273554</v>
       </c>
       <c r="S32" t="n">
-        <v>3324.106296837988</v>
+        <v>3324.106296837986</v>
       </c>
       <c r="T32" t="n">
-        <v>3216.038285259547</v>
+        <v>3216.038285259544</v>
       </c>
       <c r="U32" t="n">
-        <v>3060.417544570719</v>
+        <v>3060.417544570717</v>
       </c>
       <c r="V32" t="n">
-        <v>2827.264393264485</v>
+        <v>2827.264393264483</v>
       </c>
       <c r="W32" t="n">
-        <v>2572.405474031707</v>
+        <v>2572.405474031706</v>
       </c>
       <c r="X32" t="n">
-        <v>2296.849451807963</v>
+        <v>2296.849451807962</v>
       </c>
       <c r="Y32" t="n">
-        <v>2004.619855869488</v>
+        <v>2004.619855869487</v>
       </c>
     </row>
     <row r="33">
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.7614826343964</v>
+        <v>941.7614826343963</v>
       </c>
       <c r="C33" t="n">
-        <v>767.3084533532694</v>
+        <v>767.3084533532693</v>
       </c>
       <c r="D33" t="n">
-        <v>618.3740436920182</v>
+        <v>618.3740436920181</v>
       </c>
       <c r="E33" t="n">
         <v>459.1365886865626</v>
@@ -6774,10 +6774,10 @@
         <v>85.73703618393318</v>
       </c>
       <c r="I33" t="n">
-        <v>66.72974458547114</v>
+        <v>66.72974458547108</v>
       </c>
       <c r="J33" t="n">
-        <v>160.4070140760885</v>
+        <v>160.4070140760884</v>
       </c>
       <c r="K33" t="n">
         <v>398.6712130564356</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>407.047215189422</v>
+        <v>407.0472151894212</v>
       </c>
       <c r="C34" t="n">
-        <v>336.0207682988515</v>
+        <v>336.0207682988508</v>
       </c>
       <c r="D34" t="n">
-        <v>283.8138649238522</v>
+        <v>283.8138649238517</v>
       </c>
       <c r="E34" t="n">
-        <v>233.8105073787955</v>
+        <v>233.8105073787951</v>
       </c>
       <c r="F34" t="n">
-        <v>184.8302959182216</v>
+        <v>184.8302959182213</v>
       </c>
       <c r="G34" t="n">
-        <v>115.0371953302769</v>
+        <v>115.0371953302767</v>
       </c>
       <c r="H34" t="n">
-        <v>66.72974458547114</v>
+        <v>66.72974458547108</v>
       </c>
       <c r="I34" t="n">
-        <v>66.72974458547114</v>
+        <v>66.72974458547108</v>
       </c>
       <c r="J34" t="n">
-        <v>174.513830413104</v>
+        <v>174.5138304131041</v>
       </c>
       <c r="K34" t="n">
-        <v>368.7860169709678</v>
+        <v>272.8246846807745</v>
       </c>
       <c r="L34" t="n">
-        <v>620.4571931835185</v>
+        <v>524.4958608933252</v>
       </c>
       <c r="M34" t="n">
-        <v>883.8510067729097</v>
+        <v>787.8896744827166</v>
       </c>
       <c r="N34" t="n">
-        <v>1151.121176092951</v>
+        <v>1055.159843802758</v>
       </c>
       <c r="O34" t="n">
-        <v>1385.000857601334</v>
+        <v>1289.039525311141</v>
       </c>
       <c r="P34" t="n">
-        <v>1483.951860354092</v>
+        <v>1387.9905280639</v>
       </c>
       <c r="Q34" t="n">
-        <v>1500.856946483369</v>
+        <v>1496.872627712634</v>
       </c>
       <c r="R34" t="n">
-        <v>1500.856946483369</v>
+        <v>1500.856946483368</v>
       </c>
       <c r="S34" t="n">
-        <v>1407.080798347532</v>
+        <v>1407.080798347531</v>
       </c>
       <c r="T34" t="n">
-        <v>1283.223918954395</v>
+        <v>1283.223918954393</v>
       </c>
       <c r="U34" t="n">
-        <v>1092.030788117375</v>
+        <v>1092.030788117373</v>
       </c>
       <c r="V34" t="n">
-        <v>935.2560359488242</v>
+        <v>935.2560359488228</v>
       </c>
       <c r="W34" t="n">
-        <v>743.7486019492</v>
+        <v>743.7486019491987</v>
       </c>
       <c r="X34" t="n">
-        <v>613.668787088519</v>
+        <v>613.6687870885179</v>
       </c>
       <c r="Y34" t="n">
-        <v>490.7859439823253</v>
+        <v>490.7859439823243</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C35" t="n">
         <v>1440.850850103805</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464966</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307333</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218286</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6947,10 +6947,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
         <v>3018.302393296686</v>
@@ -6968,19 +6968,19 @@
         <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="36">
@@ -6990,10 +6990,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
         <v>618.1564155387305</v>
@@ -7002,46 +7002,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T36" t="n">
         <v>2242.828302297192</v>
@@ -7069,58 +7069,58 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.2593958170921</v>
+        <v>402.2593958170926</v>
       </c>
       <c r="C37" t="n">
-        <v>331.9946474630286</v>
+        <v>331.9946474630291</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245364</v>
+        <v>280.5494426245367</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159867</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919198</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H37" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>67.83109325226758</v>
       </c>
       <c r="J37" t="n">
-        <v>163.8840378413017</v>
+        <v>176.3617198155309</v>
       </c>
       <c r="K37" t="n">
-        <v>262.1948921089721</v>
+        <v>371.3804471090251</v>
       </c>
       <c r="L37" t="n">
-        <v>514.6126090571533</v>
+        <v>527.0902910313823</v>
       </c>
       <c r="M37" t="n">
-        <v>778.752963382175</v>
+        <v>694.5227723305801</v>
       </c>
       <c r="N37" t="n">
-        <v>1046.769673437846</v>
+        <v>941.3967585295463</v>
       </c>
       <c r="O37" t="n">
-        <v>1281.39589568186</v>
+        <v>1176.02298077356</v>
       </c>
       <c r="P37" t="n">
-        <v>1477.054771460443</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q37" t="n">
-        <v>1489.975538818984</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R37" t="n">
         <v>1489.975538818984</v>
       </c>
       <c r="S37" t="n">
-        <v>1396.961089219653</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T37" t="n">
         <v>1273.865908363023</v>
@@ -7129,16 +7129,16 @@
         <v>1083.43447606251</v>
       </c>
       <c r="V37" t="n">
-        <v>927.4214224304662</v>
+        <v>927.4214224304669</v>
       </c>
       <c r="W37" t="n">
-        <v>736.6756869673491</v>
+        <v>736.6756869673496</v>
       </c>
       <c r="X37" t="n">
-        <v>607.3575706431751</v>
+        <v>607.3575706431757</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.2364260734884</v>
+        <v>485.236426073489</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470375</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E38" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307328</v>
+        <v>581.825297830733</v>
       </c>
       <c r="G38" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218286</v>
+        <v>66.51211643218423</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912097</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="39">
@@ -7227,31 +7227,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170926</v>
       </c>
       <c r="C40" t="n">
-        <v>331.994647463029</v>
+        <v>331.9946474630291</v>
       </c>
       <c r="D40" t="n">
         <v>280.5494426245367</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159869</v>
+        <v>231.307783615987</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919199</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G40" t="n">
         <v>114.0578686404823</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
-        <v>78.33486996962287</v>
+        <v>155.2189959588258</v>
       </c>
       <c r="K40" t="n">
-        <v>273.3535972631171</v>
+        <v>350.2377232523201</v>
       </c>
       <c r="L40" t="n">
-        <v>525.7713142112983</v>
+        <v>602.6554402005012</v>
       </c>
       <c r="M40" t="n">
-        <v>789.91166853632</v>
+        <v>866.7957945255229</v>
       </c>
       <c r="N40" t="n">
-        <v>1057.928378591992</v>
+        <v>1038.10463155537</v>
       </c>
       <c r="O40" t="n">
-        <v>1292.554600836005</v>
+        <v>1176.02298077356</v>
       </c>
       <c r="P40" t="n">
-        <v>1477.054771460443</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q40" t="n">
-        <v>1489.975538818984</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R40" t="n">
         <v>1489.975538818984</v>
@@ -7366,16 +7366,16 @@
         <v>1083.43447606251</v>
       </c>
       <c r="V40" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304669</v>
       </c>
       <c r="W40" t="n">
-        <v>736.6756869673495</v>
+        <v>736.6756869673496</v>
       </c>
       <c r="X40" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431757</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734889</v>
+        <v>485.236426073489</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C41" t="n">
         <v>1440.850850103805</v>
@@ -7403,40 +7403,40 @@
         <v>265.4242822495729</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218423</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912097</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T41" t="n">
         <v>3206.680274668175</v>
@@ -7445,13 +7445,13 @@
         <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W41" t="n">
         <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y41" t="n">
         <v>1999.070337960652</v>
@@ -7464,31 +7464,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
@@ -7533,7 +7533,7 @@
         <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7552,43 +7552,43 @@
         <v>280.5494426245367</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159869</v>
+        <v>231.307783615987</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919199</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G43" t="n">
         <v>114.0578686404823</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
-        <v>163.8840378413026</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K43" t="n">
-        <v>262.194892108973</v>
+        <v>273.3535972631171</v>
       </c>
       <c r="L43" t="n">
-        <v>417.9047360313302</v>
+        <v>525.7713142112983</v>
       </c>
       <c r="M43" t="n">
-        <v>682.0450903563519</v>
+        <v>770.0879214996988</v>
       </c>
       <c r="N43" t="n">
-        <v>950.0618004120233</v>
+        <v>941.3967585295463</v>
       </c>
       <c r="O43" t="n">
-        <v>1184.688022656037</v>
+        <v>1176.02298077356</v>
       </c>
       <c r="P43" t="n">
-        <v>1380.34689843462</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q43" t="n">
-        <v>1489.975538818984</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R43" t="n">
         <v>1489.975538818984</v>
@@ -7625,16 +7625,16 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464972</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F44" t="n">
-        <v>581.825297830733</v>
+        <v>581.8252978307335</v>
       </c>
       <c r="G44" t="n">
         <v>265.4242822495729</v>
@@ -7646,13 +7646,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.77673900139</v>
@@ -7670,28 +7670,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710111</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="45">
@@ -7728,10 +7728,10 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7801,31 +7801,31 @@
         <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>67.83109325226759</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962289</v>
+        <v>155.2189959588258</v>
       </c>
       <c r="K46" t="n">
-        <v>262.194892108973</v>
+        <v>350.2377232523201</v>
       </c>
       <c r="L46" t="n">
-        <v>417.9047360313302</v>
+        <v>602.6554402005012</v>
       </c>
       <c r="M46" t="n">
-        <v>682.0450903563519</v>
+        <v>770.087921499699</v>
       </c>
       <c r="N46" t="n">
-        <v>950.0618004120233</v>
+        <v>1038.10463155537</v>
       </c>
       <c r="O46" t="n">
-        <v>1184.688022656037</v>
+        <v>1272.730853799384</v>
       </c>
       <c r="P46" t="n">
-        <v>1380.34689843462</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q46" t="n">
-        <v>1489.975538818984</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R46" t="n">
         <v>1489.975538818984</v>
@@ -9097,10 +9097,10 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O16" t="n">
-        <v>163.0416663658822</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P16" t="n">
-        <v>135.0065633140411</v>
+        <v>135.0065633140399</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -10030,7 +10030,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>33.6362413227229</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
         <v>106.7437663446525</v>
@@ -10285,7 +10285,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P31" t="n">
-        <v>135.0065633140411</v>
+        <v>135.0065633140402</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>126.89121658281</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>302.2658320988205</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>31.73550625763981</v>
       </c>
     </row>
     <row r="12">
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>151.5159098051013</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>83.92851037866784</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958327</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>52.28225787287821</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>52.28225787287712</v>
       </c>
     </row>
     <row r="18">
@@ -23972,13 +23972,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>52.2822578728786</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>52.28225787287744</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24212,13 +24212,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>41.72511615689154</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>41.72511615689035</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24443,22 +24443,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>116.7891675947924</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>177.9557380277552</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24491,10 +24491,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958328</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24503,7 +24503,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988205</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24683,7 +24683,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>87.79781201360009</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24692,10 +24692,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H29" t="n">
-        <v>57.63703810430692</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24731,13 +24731,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -25397,7 +25397,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>-8.384404281969182e-13</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>721219.8953433881</v>
+        <v>721219.895343388</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>755614.0944772824</v>
+        <v>755614.0944772825</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>721997.2176879362</v>
+        <v>721997.2176879358</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>721997.217687936</v>
+        <v>721997.2176879359</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244625</v>
       </c>
     </row>
     <row r="15">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>675902.9794415568</v>
+        <v>675902.9794415564</v>
       </c>
       <c r="C2" t="n">
-        <v>675902.9794415566</v>
+        <v>675902.9794415567</v>
       </c>
       <c r="D2" t="n">
-        <v>675906.1916374882</v>
+        <v>675906.1916374884</v>
       </c>
       <c r="E2" t="n">
         <v>630738.0831591204</v>
@@ -26326,34 +26326,34 @@
         <v>630738.0831591215</v>
       </c>
       <c r="G2" t="n">
+        <v>673926.084263521</v>
+      </c>
+      <c r="H2" t="n">
         <v>673926.0842635209</v>
       </c>
-      <c r="H2" t="n">
-        <v>673926.0842635211</v>
-      </c>
       <c r="I2" t="n">
-        <v>674619.3717600099</v>
+        <v>674619.3717600096</v>
       </c>
       <c r="J2" t="n">
-        <v>631431.3706556099</v>
+        <v>631431.3706556091</v>
       </c>
       <c r="K2" t="n">
-        <v>631431.3706556093</v>
+        <v>631431.3706556102</v>
       </c>
       <c r="L2" t="n">
-        <v>677359.4601380345</v>
+        <v>677359.4601380348</v>
       </c>
       <c r="M2" t="n">
-        <v>677359.4601380327</v>
+        <v>677359.460138033</v>
       </c>
       <c r="N2" t="n">
-        <v>677359.460138033</v>
+        <v>677359.4601380329</v>
       </c>
       <c r="O2" t="n">
-        <v>677359.460138033</v>
+        <v>677359.4601380329</v>
       </c>
       <c r="P2" t="n">
-        <v>677359.460138033</v>
+        <v>677359.4601380342</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>10420.33926655625</v>
+        <v>10420.33926655568</v>
       </c>
       <c r="E3" t="n">
         <v>1151572.830875719</v>
@@ -26378,13 +26378,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.109294874</v>
+        <v>37580.10929487406</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>723.3987018803311</v>
+        <v>723.3987018801587</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>77544.51094157038</v>
+        <v>77544.51094157052</v>
       </c>
       <c r="M3" t="n">
         <v>207113.9109540876</v>
@@ -26421,40 +26421,40 @@
         <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>463375.0335747253</v>
+        <v>463375.0335747255</v>
       </c>
       <c r="E4" t="n">
-        <v>61875.22120367239</v>
+        <v>61875.22120367244</v>
       </c>
       <c r="F4" t="n">
         <v>61875.22120367239</v>
       </c>
       <c r="G4" t="n">
-        <v>91416.01306755035</v>
+        <v>91416.0130675504</v>
       </c>
       <c r="H4" t="n">
-        <v>91416.01306755035</v>
+        <v>91416.01306755039</v>
       </c>
       <c r="I4" t="n">
-        <v>91906.68112942862</v>
+        <v>91906.68112942856</v>
       </c>
       <c r="J4" t="n">
-        <v>62365.88926555064</v>
+        <v>62365.88926555052</v>
       </c>
       <c r="K4" t="n">
-        <v>62365.88926555064</v>
+        <v>62365.88926555053</v>
       </c>
       <c r="L4" t="n">
-        <v>93788.48670920232</v>
+        <v>93788.48670920226</v>
       </c>
       <c r="M4" t="n">
-        <v>93774.137826577</v>
+        <v>93774.13782657697</v>
       </c>
       <c r="N4" t="n">
-        <v>93774.137826577</v>
+        <v>93774.13782657699</v>
       </c>
       <c r="O4" t="n">
-        <v>93774.13782657697</v>
+        <v>93774.13782657699</v>
       </c>
       <c r="P4" t="n">
         <v>93774.13782657697</v>
@@ -26473,10 +26473,10 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33892.84951251489</v>
+        <v>33892.84951251488</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="F5" t="n">
         <v>78255.49332178176</v>
@@ -26488,28 +26488,28 @@
         <v>82204.64608217022</v>
       </c>
       <c r="I5" t="n">
-        <v>82370.04347866887</v>
+        <v>82370.04347866884</v>
       </c>
       <c r="J5" t="n">
-        <v>78420.89071828043</v>
+        <v>78420.89071828038</v>
       </c>
       <c r="K5" t="n">
-        <v>78420.89071828043</v>
+        <v>78420.89071828038</v>
       </c>
       <c r="L5" t="n">
-        <v>82620.59982082556</v>
+        <v>82620.59982082553</v>
       </c>
       <c r="M5" t="n">
         <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>174659.4195098256</v>
+        <v>174655.005931957</v>
       </c>
       <c r="C6" t="n">
-        <v>174659.4195098254</v>
+        <v>174655.0059319574</v>
       </c>
       <c r="D6" t="n">
-        <v>168217.9692836918</v>
+        <v>168213.5654397513</v>
       </c>
       <c r="E6" t="n">
-        <v>-660965.4622420527</v>
+        <v>-661106.7391419894</v>
       </c>
       <c r="F6" t="n">
-        <v>490607.3686336674</v>
+        <v>490466.0917337313</v>
       </c>
       <c r="G6" t="n">
-        <v>462725.3158189263</v>
+        <v>462714.9116496097</v>
       </c>
       <c r="H6" t="n">
-        <v>500305.4251138006</v>
+        <v>500295.0209444836</v>
       </c>
       <c r="I6" t="n">
-        <v>499619.248450032</v>
+        <v>499610.9451519168</v>
       </c>
       <c r="J6" t="n">
-        <v>490644.5906717788</v>
+        <v>490505.4146430435</v>
       </c>
       <c r="K6" t="n">
-        <v>490644.5906717782</v>
+        <v>490505.4146430447</v>
       </c>
       <c r="L6" t="n">
-        <v>423405.8626664363</v>
+        <v>423405.8626664365</v>
       </c>
       <c r="M6" t="n">
-        <v>293952.8140511182</v>
+        <v>293952.8140511186</v>
       </c>
       <c r="N6" t="n">
-        <v>501066.7250052062</v>
+        <v>501066.7250052061</v>
       </c>
       <c r="O6" t="n">
-        <v>501066.7250052062</v>
+        <v>501066.7250052061</v>
       </c>
       <c r="P6" t="n">
-        <v>501066.7250052062</v>
+        <v>501066.7250052074</v>
       </c>
     </row>
   </sheetData>
@@ -26692,34 +26692,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G2" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="H2" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="I2" t="n">
-        <v>93.95027323718513</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="J2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L2" t="n">
-        <v>96.93063867696304</v>
+        <v>96.93063867696317</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="O2" t="n">
         <v>97.68472022810492</v>
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12.16740883095822</v>
+        <v>12.16740883095756</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26796,10 +26796,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022928</v>
@@ -26808,28 +26808,28 @@
         <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
-        <v>834.1218073183892</v>
+        <v>834.1218073183887</v>
       </c>
       <c r="J4" t="n">
-        <v>834.1218073183892</v>
+        <v>834.1218073183885</v>
       </c>
       <c r="K4" t="n">
-        <v>834.1218073183892</v>
+        <v>834.1218073183885</v>
       </c>
       <c r="L4" t="n">
-        <v>834.1218073183892</v>
+        <v>834.1218073183885</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.401455402293</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
     </row>
   </sheetData>
@@ -26914,19 +26914,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>46.97513661859258</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>46.97513661859256</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>46.97513661859249</v>
-      </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>96.93063867696297</v>
+        <v>96.93063867696316</v>
       </c>
       <c r="M2" t="n">
-        <v>0.754081551141951</v>
+        <v>0.754081551141752</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12.16740883095822</v>
+        <v>12.16740883095756</v>
       </c>
       <c r="E3" t="n">
         <v>1077.60929176234</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2.720351916096433</v>
+        <v>2.720351916095979</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>828.6811034861962</v>
+        <v>828.6811034861969</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,19 +27151,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>46.97513661859258</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>46.97513661859256</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>46.97513661859249</v>
-      </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27871,34 +27871,34 @@
         <v>338.9738594999278</v>
       </c>
       <c r="I8" t="n">
-        <v>208.5901246298812</v>
+        <v>208.5901246298813</v>
       </c>
       <c r="J8" t="n">
-        <v>176.8943724050118</v>
+        <v>176.894372405012</v>
       </c>
       <c r="K8" t="n">
-        <v>213.867780568273</v>
+        <v>213.8677805682733</v>
       </c>
       <c r="L8" t="n">
-        <v>228.0473863505242</v>
+        <v>228.0473863505246</v>
       </c>
       <c r="M8" t="n">
-        <v>221.7573265905331</v>
+        <v>221.7573265905335</v>
       </c>
       <c r="N8" t="n">
-        <v>220.6851794710434</v>
+        <v>220.6851794710439</v>
       </c>
       <c r="O8" t="n">
-        <v>221.8567179355878</v>
+        <v>221.8567179355882</v>
       </c>
       <c r="P8" t="n">
-        <v>224.1990717385748</v>
+        <v>224.1990717385751</v>
       </c>
       <c r="Q8" t="n">
-        <v>217.023505872865</v>
+        <v>217.0235058728653</v>
       </c>
       <c r="R8" t="n">
-        <v>212.5129307991465</v>
+        <v>212.5129307991467</v>
       </c>
       <c r="S8" t="n">
         <v>207.9054371089169</v>
@@ -27950,34 +27950,34 @@
         <v>111.9826835360647</v>
       </c>
       <c r="I9" t="n">
-        <v>98.62130302525451</v>
+        <v>98.62130302525456</v>
       </c>
       <c r="J9" t="n">
-        <v>124.3650025758396</v>
+        <v>124.3650025758397</v>
       </c>
       <c r="K9" t="n">
-        <v>133.6153305693648</v>
+        <v>133.615330569365</v>
       </c>
       <c r="L9" t="n">
-        <v>132.8718554951894</v>
+        <v>132.8718554951897</v>
       </c>
       <c r="M9" t="n">
-        <v>135.5027961091461</v>
+        <v>135.5027961091465</v>
       </c>
       <c r="N9" t="n">
-        <v>124.5349651374183</v>
+        <v>124.5349651374187</v>
       </c>
       <c r="O9" t="n">
-        <v>136.3694007948879</v>
+        <v>136.3694007948883</v>
       </c>
       <c r="P9" t="n">
-        <v>128.9768164173278</v>
+        <v>128.9768164173281</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.6410168537931</v>
+        <v>136.6410168537933</v>
       </c>
       <c r="R9" t="n">
-        <v>144.0545809506522</v>
+        <v>144.0545809506523</v>
       </c>
       <c r="S9" t="n">
         <v>171.1970486849783</v>
@@ -28032,28 +28032,28 @@
         <v>154.790642330327</v>
       </c>
       <c r="J10" t="n">
-        <v>125.4441765463082</v>
+        <v>125.4441765463083</v>
       </c>
       <c r="K10" t="n">
-        <v>126.4640862875904</v>
+        <v>126.4640862875905</v>
       </c>
       <c r="L10" t="n">
-        <v>131.6226139202302</v>
+        <v>131.6226139202304</v>
       </c>
       <c r="M10" t="n">
-        <v>135.4863965628147</v>
+        <v>135.4863965628149</v>
       </c>
       <c r="N10" t="n">
-        <v>124.3279380250443</v>
+        <v>124.3279380250445</v>
       </c>
       <c r="O10" t="n">
-        <v>135.3552454599782</v>
+        <v>135.3552454599784</v>
       </c>
       <c r="P10" t="n">
-        <v>135.0743121296875</v>
+        <v>135.0743121296876</v>
       </c>
       <c r="Q10" t="n">
-        <v>149.6677228959711</v>
+        <v>149.6677228959713</v>
       </c>
       <c r="R10" t="n">
         <v>176.3068339332692</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="12">
@@ -28172,7 +28172,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -28187,7 +28187,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="15">
@@ -28418,10 +28418,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="H15" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="C17" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="D17" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="E17" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="F17" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="G17" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="H17" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="T17" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="U17" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="V17" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="W17" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="X17" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="Y17" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
     </row>
     <row r="18">
@@ -28661,7 +28661,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="C19" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="D19" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="E19" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="F19" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="G19" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="H19" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="I19" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="J19" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="K19" t="n">
-        <v>66.92998257089295</v>
+        <v>61.91186200375304</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="N19" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="O19" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="P19" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="Q19" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="S19" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="T19" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="U19" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="V19" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="W19" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="X19" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="C20" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="D20" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="E20" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="F20" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="G20" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="H20" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="T20" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="U20" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="V20" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="W20" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="X20" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="Y20" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
     </row>
     <row r="21">
@@ -28892,10 +28892,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
         <v>1.989519660128281e-13</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="C22" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="D22" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="E22" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="F22" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="G22" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="H22" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="I22" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="J22" t="n">
-        <v>93.95027323718506</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>93.95027323718506</v>
+        <v>61.91186200375304</v>
       </c>
       <c r="L22" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="M22" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="N22" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="P22" t="n">
-        <v>66.92998257089317</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="Q22" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="S22" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="T22" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="U22" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="V22" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="W22" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="X22" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718514</v>
       </c>
     </row>
     <row r="23">
@@ -29035,31 +29035,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>93.95027323718513</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="C23" t="n">
-        <v>93.95027323718513</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="D23" t="n">
-        <v>93.95027323718513</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="E23" t="n">
-        <v>93.95027323718513</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="F23" t="n">
-        <v>93.95027323718513</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="G23" t="n">
-        <v>93.95027323718513</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="H23" t="n">
-        <v>93.95027323718513</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="I23" t="n">
-        <v>52.34842422858041</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>10.77149445565266</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>93.95027323718513</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="T23" t="n">
-        <v>93.95027323718513</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="U23" t="n">
-        <v>93.95027323718513</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="V23" t="n">
-        <v>93.95027323718513</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="W23" t="n">
-        <v>93.95027323718513</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="X23" t="n">
-        <v>93.95027323718513</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="Y23" t="n">
-        <v>93.95027323718513</v>
+        <v>93.95027323718514</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.95027323718513</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="C25" t="n">
-        <v>93.95027323718513</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="D25" t="n">
-        <v>93.95027323718513</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="E25" t="n">
-        <v>93.95027323718513</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="F25" t="n">
-        <v>93.95027323718513</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="G25" t="n">
-        <v>93.95027323718513</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="H25" t="n">
-        <v>93.95027323718513</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="I25" t="n">
-        <v>93.95027323718513</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="J25" t="n">
-        <v>93.95027323718513</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="K25" t="n">
-        <v>93.95027323718513</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>93.95027323718513</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="M25" t="n">
-        <v>93.95027323718513</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="N25" t="n">
-        <v>93.95027323718513</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="O25" t="n">
-        <v>93.95027323718513</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="P25" t="n">
-        <v>66.92998257089133</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>61.91186200375338</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="S25" t="n">
-        <v>93.95027323718513</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="T25" t="n">
-        <v>93.95027323718513</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="U25" t="n">
-        <v>93.95027323718513</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="V25" t="n">
-        <v>93.95027323718513</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="W25" t="n">
-        <v>93.95027323718513</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="X25" t="n">
-        <v>93.95027323718513</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="Y25" t="n">
-        <v>93.95027323718513</v>
+        <v>93.95027323718514</v>
       </c>
     </row>
     <row r="26">
@@ -29293,7 +29293,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I26" t="n">
-        <v>46.97513661859256</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29320,7 +29320,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>5.373287609988154</v>
+        <v>10.77149445565206</v>
       </c>
       <c r="S26" t="n">
         <v>46.97513661859256</v>
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I29" t="n">
-        <v>46.97513661859256</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29542,7 +29542,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>10.77149445565192</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -29557,28 +29557,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>5.373287609988154</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>96.93063867696304</v>
+        <v>96.93063867696317</v>
       </c>
       <c r="C32" t="n">
-        <v>96.93063867696304</v>
+        <v>96.93063867696317</v>
       </c>
       <c r="D32" t="n">
-        <v>96.93063867696304</v>
+        <v>96.93063867696317</v>
       </c>
       <c r="E32" t="n">
-        <v>96.93063867696304</v>
+        <v>96.93063867696317</v>
       </c>
       <c r="F32" t="n">
-        <v>96.93063867696304</v>
+        <v>96.93063867696317</v>
       </c>
       <c r="G32" t="n">
-        <v>96.93063867696304</v>
+        <v>96.93063867696317</v>
       </c>
       <c r="H32" t="n">
-        <v>96.93063867696304</v>
+        <v>96.93063867696317</v>
       </c>
       <c r="I32" t="n">
-        <v>52.34842422858041</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29776,7 +29776,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>10.7714944556518</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>96.93063867696304</v>
+        <v>96.93063867696317</v>
       </c>
       <c r="T32" t="n">
-        <v>96.93063867696304</v>
+        <v>96.93063867696317</v>
       </c>
       <c r="U32" t="n">
-        <v>96.93063867696304</v>
+        <v>96.93063867696317</v>
       </c>
       <c r="V32" t="n">
-        <v>96.93063867696304</v>
+        <v>96.93063867696317</v>
       </c>
       <c r="W32" t="n">
-        <v>96.93063867696304</v>
+        <v>96.93063867696317</v>
       </c>
       <c r="X32" t="n">
-        <v>96.93063867696304</v>
+        <v>96.93063867696317</v>
       </c>
       <c r="Y32" t="n">
-        <v>96.93063867696304</v>
+        <v>96.93063867696317</v>
       </c>
     </row>
     <row r="33">
@@ -29879,7 +29879,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>96.93063867696304</v>
+        <v>96.93063867696317</v>
       </c>
       <c r="C34" t="n">
-        <v>96.93063867696304</v>
+        <v>96.93063867696317</v>
       </c>
       <c r="D34" t="n">
-        <v>96.93063867696304</v>
+        <v>96.93063867696317</v>
       </c>
       <c r="E34" t="n">
-        <v>96.93063867696304</v>
+        <v>96.93063867696317</v>
       </c>
       <c r="F34" t="n">
-        <v>96.93063867696304</v>
+        <v>96.93063867696317</v>
       </c>
       <c r="G34" t="n">
-        <v>96.93063867696304</v>
+        <v>96.93063867696317</v>
       </c>
       <c r="H34" t="n">
-        <v>96.93063867696304</v>
+        <v>96.93063867696317</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
-        <v>96.93063867696304</v>
+        <v>96.93063867696317</v>
       </c>
       <c r="K34" t="n">
-        <v>96.93063867696304</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>96.93063867696304</v>
+        <v>96.93063867696317</v>
       </c>
       <c r="M34" t="n">
-        <v>96.93063867696304</v>
+        <v>96.93063867696317</v>
       </c>
       <c r="N34" t="n">
-        <v>96.93063867696304</v>
+        <v>96.93063867696317</v>
       </c>
       <c r="O34" t="n">
-        <v>96.93063867696304</v>
+        <v>96.93063867696317</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>4.024564414885226</v>
+        <v>96.93063867696317</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>92.95671708492996</v>
       </c>
       <c r="S34" t="n">
-        <v>96.93063867696304</v>
+        <v>96.93063867696317</v>
       </c>
       <c r="T34" t="n">
-        <v>96.93063867696304</v>
+        <v>96.93063867696317</v>
       </c>
       <c r="U34" t="n">
-        <v>96.93063867696304</v>
+        <v>96.93063867696317</v>
       </c>
       <c r="V34" t="n">
-        <v>96.93063867696304</v>
+        <v>96.93063867696317</v>
       </c>
       <c r="W34" t="n">
-        <v>96.93063867696304</v>
+        <v>96.93063867696317</v>
       </c>
       <c r="X34" t="n">
-        <v>96.93063867696304</v>
+        <v>96.93063867696317</v>
       </c>
       <c r="Y34" t="n">
-        <v>96.93063867696304</v>
+        <v>96.93063867696317</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="J37" t="n">
-        <v>86.41330088048369</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="L37" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>97.68472022810499</v>
+        <v>76.32843350416033</v>
       </c>
       <c r="O37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="P37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="39">
@@ -30299,7 +30299,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -30317,7 +30317,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>77.66073332242719</v>
       </c>
       <c r="K40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="L40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="M40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="N40" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>86.41330088048437</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="41">
@@ -30557,7 +30557,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30605,7 +30605,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30639,19 +30639,19 @@
         <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
-        <v>86.41330088048456</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="M43" t="n">
-        <v>97.68472022810492</v>
+        <v>77.66073332242698</v>
       </c>
       <c r="N43" t="n">
-        <v>97.68472022810492</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>97.68472022810492</v>
@@ -30663,7 +30663,7 @@
         <v>97.68472022810492</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="S43" t="n">
         <v>97.68472022810492</v>
@@ -30873,19 +30873,19 @@
         <v>97.68472022810492</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>76.32843350416037</v>
       </c>
       <c r="K46" t="n">
-        <v>86.41330088048454</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="M46" t="n">
-        <v>97.68472022810492</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>97.68472022810492</v>
@@ -30894,13 +30894,13 @@
         <v>97.68472022810492</v>
       </c>
       <c r="P46" t="n">
-        <v>97.68472022810492</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>97.68472022810492</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="S46" t="n">
         <v>97.68472022810492</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04891420635561089</v>
+        <v>0.04891420635560823</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5009426158394001</v>
+        <v>0.5009426158393728</v>
       </c>
       <c r="I8" t="n">
-        <v>1.885764940524691</v>
+        <v>1.885764940524588</v>
       </c>
       <c r="J8" t="n">
-        <v>4.151532121674533</v>
+        <v>4.151532121674308</v>
       </c>
       <c r="K8" t="n">
-        <v>6.222070476707543</v>
+        <v>6.222070476707205</v>
       </c>
       <c r="L8" t="n">
-        <v>7.719028619463072</v>
+        <v>7.719028619462652</v>
       </c>
       <c r="M8" t="n">
-        <v>8.588906636739667</v>
+        <v>8.5889066367392</v>
       </c>
       <c r="N8" t="n">
-        <v>8.727884125547547</v>
+        <v>8.727884125547071</v>
       </c>
       <c r="O8" t="n">
-        <v>8.241493486098941</v>
+        <v>8.241493486098491</v>
       </c>
       <c r="P8" t="n">
-        <v>7.033924016694796</v>
+        <v>7.033924016694413</v>
       </c>
       <c r="Q8" t="n">
-        <v>5.282184001584479</v>
+        <v>5.282184001584191</v>
       </c>
       <c r="R8" t="n">
-        <v>3.072607014985645</v>
+        <v>3.072607014985478</v>
       </c>
       <c r="S8" t="n">
-        <v>1.114632477328484</v>
+        <v>1.114632477328424</v>
       </c>
       <c r="T8" t="n">
-        <v>0.2141219383216868</v>
+        <v>0.2141219383216751</v>
       </c>
       <c r="U8" t="n">
-        <v>0.00391313650844887</v>
+        <v>0.003913136508448658</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02617140767413655</v>
+        <v>0.02617140767413512</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2527607004317924</v>
+        <v>0.2527607004317787</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9010769747454908</v>
+        <v>0.9010769747454417</v>
       </c>
       <c r="J9" t="n">
-        <v>2.472624090827085</v>
+        <v>2.472624090826951</v>
       </c>
       <c r="K9" t="n">
-        <v>4.226108404994234</v>
+        <v>4.226108404994004</v>
       </c>
       <c r="L9" t="n">
-        <v>5.68252428468478</v>
+        <v>5.682524284684471</v>
       </c>
       <c r="M9" t="n">
-        <v>6.631237812872228</v>
+        <v>6.631237812871866</v>
       </c>
       <c r="N9" t="n">
-        <v>6.806746945915013</v>
+        <v>6.806746945914642</v>
       </c>
       <c r="O9" t="n">
-        <v>6.226843649556513</v>
+        <v>6.226843649556175</v>
       </c>
       <c r="P9" t="n">
-        <v>4.997590997002443</v>
+        <v>4.99759099700217</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.340757232228377</v>
+        <v>3.340757232228196</v>
       </c>
       <c r="R9" t="n">
-        <v>1.624923013311742</v>
+        <v>1.624923013311653</v>
       </c>
       <c r="S9" t="n">
-        <v>0.4861224188595096</v>
+        <v>0.4861224188594832</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1054891388268924</v>
+        <v>0.1054891388268867</v>
       </c>
       <c r="U9" t="n">
-        <v>0.001721803136456352</v>
+        <v>0.001721803136456258</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02194122903943285</v>
+        <v>0.02194122903943166</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1950774727324122</v>
+        <v>0.1950774727324016</v>
       </c>
       <c r="I10" t="n">
-        <v>0.659832596931308</v>
+        <v>0.6598325969312722</v>
       </c>
       <c r="J10" t="n">
-        <v>1.551244893087902</v>
+        <v>1.551244893087818</v>
       </c>
       <c r="K10" t="n">
-        <v>2.549171882945016</v>
+        <v>2.549171882944877</v>
       </c>
       <c r="L10" t="n">
-        <v>3.262062361008045</v>
+        <v>3.262062361007867</v>
       </c>
       <c r="M10" t="n">
-        <v>3.439387384790369</v>
+        <v>3.439387384790181</v>
       </c>
       <c r="N10" t="n">
-        <v>3.357606440188849</v>
+        <v>3.357606440188666</v>
       </c>
       <c r="O10" t="n">
-        <v>3.101292991864564</v>
+        <v>3.101292991864395</v>
       </c>
       <c r="P10" t="n">
-        <v>2.653691919460132</v>
+        <v>2.653691919459988</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.837278733474691</v>
+        <v>1.837278733474591</v>
       </c>
       <c r="R10" t="n">
-        <v>0.9865574439003167</v>
+        <v>0.986557443900263</v>
       </c>
       <c r="S10" t="n">
-        <v>0.3823757824417524</v>
+        <v>0.3823757824417315</v>
       </c>
       <c r="T10" t="n">
-        <v>0.09374888771394033</v>
+        <v>0.09374888771393523</v>
       </c>
       <c r="U10" t="n">
-        <v>0.001196794311241793</v>
+        <v>0.001196794311241728</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -33737,7 +33737,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -34375,7 +34375,7 @@
         <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490575005</v>
       </c>
       <c r="N44" t="n">
         <v>781.7148990095023</v>
@@ -34448,7 +34448,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35577,7 +35577,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O13" t="n">
         <v>349.3282668412323</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K16" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L16" t="n">
         <v>366.7325087887907</v>
@@ -35817,10 +35817,10 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O16" t="n">
-        <v>349.3282668412321</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P16" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637019</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3693751564862</v>
@@ -36039,31 +36039,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8924485275279</v>
+        <v>105.892448527528</v>
       </c>
       <c r="K19" t="n">
-        <v>166.23387577056</v>
+        <v>161.2157552034201</v>
       </c>
       <c r="L19" t="n">
         <v>157.2826706286437</v>
       </c>
       <c r="M19" t="n">
-        <v>263.0739917212233</v>
+        <v>263.0739917212234</v>
       </c>
       <c r="N19" t="n">
         <v>266.9895025602634</v>
       </c>
       <c r="O19" t="n">
-        <v>233.2617370939424</v>
+        <v>233.2617370939425</v>
       </c>
       <c r="P19" t="n">
-        <v>193.9007810682544</v>
+        <v>193.9007810682545</v>
       </c>
       <c r="Q19" t="n">
         <v>107.0015533973273</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>5.018120567137814</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36276,31 +36276,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8924485275279</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K22" t="n">
-        <v>193.2541664368521</v>
+        <v>161.2157552034201</v>
       </c>
       <c r="L22" t="n">
         <v>251.2329438658288</v>
       </c>
       <c r="M22" t="n">
-        <v>263.0739917212233</v>
+        <v>263.0739917212234</v>
       </c>
       <c r="N22" t="n">
         <v>266.9895025602634</v>
       </c>
       <c r="O22" t="n">
-        <v>139.3114638567573</v>
+        <v>233.2617370939425</v>
       </c>
       <c r="P22" t="n">
-        <v>166.8804904019625</v>
+        <v>193.9007810682545</v>
       </c>
       <c r="Q22" t="n">
         <v>107.0015533973273</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.018120567137814</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36352,10 +36352,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>10.77149445565446</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>201.5584954243652</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
@@ -36516,28 +36516,28 @@
         <v>105.892448527528</v>
       </c>
       <c r="K25" t="n">
-        <v>193.2541664368522</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L25" t="n">
         <v>251.2329438658288</v>
       </c>
       <c r="M25" t="n">
-        <v>263.0739917212233</v>
+        <v>263.0739917212234</v>
       </c>
       <c r="N25" t="n">
         <v>266.9895025602634</v>
       </c>
       <c r="O25" t="n">
-        <v>233.2617370939424</v>
+        <v>233.2617370939425</v>
       </c>
       <c r="P25" t="n">
-        <v>166.8804904019607</v>
+        <v>193.9007810682545</v>
       </c>
       <c r="Q25" t="n">
-        <v>13.0512801601422</v>
+        <v>74.96314216389558</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.018120567137814</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>5.398206845666607</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>190.7870009687126</v>
@@ -36616,7 +36616,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>64.98648615221293</v>
+        <v>70.38469299787684</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597713</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165836</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36762,7 +36762,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>5.398206845666607</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>190.7870009687126</v>
@@ -36838,7 +36838,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>549.6926102858787</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
@@ -36853,7 +36853,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>64.98648615221293</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L31" t="n">
         <v>366.7325087887907</v>
@@ -37005,7 +37005,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637021</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>10.77149445565446</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>190.7870009687126</v>
@@ -37072,7 +37072,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>466.361608847984</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
@@ -37224,31 +37224,31 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>108.8728139673059</v>
+        <v>108.8728139673061</v>
       </c>
       <c r="K34" t="n">
-        <v>196.2345318766301</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L34" t="n">
-        <v>254.2133093056067</v>
+        <v>254.2133093056069</v>
       </c>
       <c r="M34" t="n">
-        <v>266.0543571610012</v>
+        <v>266.0543571610013</v>
       </c>
       <c r="N34" t="n">
-        <v>269.9698680000413</v>
+        <v>269.9698680000415</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2421025337204</v>
+        <v>236.2421025337205</v>
       </c>
       <c r="P34" t="n">
         <v>99.95050783106933</v>
       </c>
       <c r="Q34" t="n">
-        <v>17.07584457502742</v>
+        <v>109.9819188371054</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>4.024564414882634</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37458,22 +37458,22 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1.332299818266826</v>
       </c>
       <c r="J37" t="n">
-        <v>98.35547617082658</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K37" t="n">
-        <v>99.30389319966704</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L37" t="n">
-        <v>254.9673908567487</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M37" t="n">
-        <v>266.8084387121432</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N37" t="n">
-        <v>270.7239495511833</v>
+        <v>249.3676628272386</v>
       </c>
       <c r="O37" t="n">
         <v>236.9961840848623</v>
@@ -37482,10 +37482,10 @@
         <v>197.6352280591743</v>
       </c>
       <c r="Q37" t="n">
-        <v>13.0512801601422</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>8.752567558057592</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>11.94217529034289</v>
+        <v>89.60290861277008</v>
       </c>
       <c r="K40" t="n">
         <v>196.988613427772</v>
@@ -37710,19 +37710,19 @@
         <v>266.8084387121431</v>
       </c>
       <c r="N40" t="n">
-        <v>270.7239495511832</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O40" t="n">
-        <v>236.9961840848623</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P40" t="n">
-        <v>186.3638087115537</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q40" t="n">
-        <v>13.0512801601422</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>8.752567558057592</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37935,19 +37935,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>98.35547617082744</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K43" t="n">
-        <v>99.30389319966704</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L43" t="n">
-        <v>157.2826706286437</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M43" t="n">
-        <v>266.8084387121431</v>
+        <v>246.7844518064652</v>
       </c>
       <c r="N43" t="n">
-        <v>270.7239495511832</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O43" t="n">
         <v>236.9961840848623</v>
@@ -37959,7 +37959,7 @@
         <v>110.7360003882471</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>8.752567558057592</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302278</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
@@ -38096,7 +38096,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>
@@ -38169,19 +38169,19 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1.332299818266826</v>
       </c>
       <c r="J46" t="n">
-        <v>11.94217529034289</v>
+        <v>88.27060879450326</v>
       </c>
       <c r="K46" t="n">
-        <v>185.7171940801516</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L46" t="n">
-        <v>157.2826706286437</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M46" t="n">
-        <v>266.8084387121431</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N46" t="n">
         <v>270.7239495511832</v>
@@ -38190,13 +38190,13 @@
         <v>236.9961840848623</v>
       </c>
       <c r="P46" t="n">
-        <v>197.6352280591743</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q46" t="n">
         <v>110.7360003882471</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>8.752567558057592</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
